--- a/Lào Cai.xlsx
+++ b/Lào Cai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -14,182 +14,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="680">
   <si>
     <t>Code</t>
   </si>
   <si>
+    <t>Code BHYT</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Ancestors</t>
   </si>
   <si>
     <t>10.BVHT</t>
   </si>
   <si>
+    <t>10065</t>
+  </si>
+  <si>
     <t>Bệnh viện Hưng Thịnh</t>
   </si>
   <si>
-    <t>GnkFMCveg6e</t>
-  </si>
-  <si>
     <t>Việt Nam, Lào Cai</t>
   </si>
   <si>
     <t>10.BVNTTLC</t>
   </si>
   <si>
+    <t>10055</t>
+  </si>
+  <si>
     <t>Bệnh viện Nội tiết tỉnh Lào Cai</t>
   </si>
   <si>
-    <t>uReLGXEjUvO</t>
-  </si>
-  <si>
     <t>10.BVPHCNTLC</t>
   </si>
   <si>
+    <t>10013</t>
+  </si>
+  <si>
     <t>Bệnh viện Phục hồi chức năng tỉnh Lào Cai</t>
   </si>
   <si>
-    <t>UdthHXo5qEq</t>
-  </si>
-  <si>
     <t>10.BVSNTLC</t>
   </si>
   <si>
+    <t>10062</t>
+  </si>
+  <si>
     <t>Bệnh viện Sản Nhi tỉnh Lào Cai</t>
   </si>
   <si>
-    <t>zuhR0UubFYu</t>
-  </si>
-  <si>
     <t>080.BVTPLC</t>
   </si>
   <si>
+    <t>10068</t>
+  </si>
+  <si>
     <t>Bệnh viện Thành phố Lào Cai</t>
   </si>
   <si>
-    <t>Heka0xkfjM9</t>
-  </si>
-  <si>
     <t>Việt Nam, Lào Cai, Thành phố Lào Cai</t>
   </si>
   <si>
     <t>10.BVYHCTTLC</t>
   </si>
   <si>
+    <t>10010</t>
+  </si>
+  <si>
     <t>Bệnh viện Y học cổ truyền tỉnh Lào Cai</t>
   </si>
   <si>
-    <t>GwwWb0mYX0K</t>
-  </si>
-  <si>
     <t>10.BVDKTLC</t>
   </si>
   <si>
+    <t>10061</t>
+  </si>
+  <si>
     <t>Bệnh viện Đa khoa tỉnh Lào Cai</t>
   </si>
   <si>
-    <t>LUE8rtFBkws</t>
-  </si>
-  <si>
     <t>082.BVDKHBX</t>
   </si>
   <si>
+    <t>10007</t>
+  </si>
+  <si>
     <t>Bệnh viện đa khoa huyện Bát Xát</t>
   </si>
   <si>
-    <t>mJRAmiOxlbI</t>
-  </si>
-  <si>
     <t>Việt Nam, Lào Cai, Huyện Bát Xát</t>
   </si>
   <si>
     <t>086.BVDKHBT</t>
   </si>
   <si>
+    <t>10003</t>
+  </si>
+  <si>
     <t>Bệnh viện đa khoa huyện Bảo Thắng</t>
   </si>
   <si>
-    <t>rmQnIsGxwkf</t>
-  </si>
-  <si>
     <t>Việt Nam, Lào Cai, Huyện Bảo Thắng</t>
   </si>
   <si>
     <t>087.BVDKHBY</t>
   </si>
   <si>
+    <t>10004</t>
+  </si>
+  <si>
     <t>Bệnh viện đa khoa huyện Bảo Yên</t>
   </si>
   <si>
-    <t>nPwYNImhAkZ</t>
-  </si>
-  <si>
     <t>Việt Nam, Lào Cai, Huyện Bảo Yên</t>
   </si>
   <si>
     <t>085.BVDKHBH</t>
   </si>
   <si>
+    <t>10005</t>
+  </si>
+  <si>
     <t>Bệnh viện đa khoa huyện Bắc Hà</t>
   </si>
   <si>
-    <t>fbUzzmHyMtt</t>
-  </si>
-  <si>
     <t>Việt Nam, Lào Cai, Huyện Bắc Hà</t>
   </si>
   <si>
     <t>083.BVDKHMK</t>
   </si>
   <si>
+    <t>10006</t>
+  </si>
+  <si>
     <t>Bệnh viện đa khoa huyện Mường Khương</t>
   </si>
   <si>
-    <t>RT4LcofaoWw</t>
-  </si>
-  <si>
     <t>Việt Nam, Lào Cai, Huyện Mường Khương</t>
   </si>
   <si>
     <t>088.BVDKHSP</t>
   </si>
   <si>
+    <t>10009</t>
+  </si>
+  <si>
     <t>Bệnh viện đa khoa huyện Sa Pa</t>
   </si>
   <si>
-    <t>xqCXhO9Y6k1</t>
-  </si>
-  <si>
     <t>Việt Nam, Lào Cai, Thị xã Sa Pa</t>
   </si>
   <si>
     <t>084.BVDKHSMC</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Bệnh viện đa khoa huyện Si ma cai (sáp nhập)</t>
   </si>
   <si>
-    <t>ddlD4rYVa4S</t>
-  </si>
-  <si>
     <t>Việt Nam, Lào Cai, Huyện Si Ma Cai</t>
   </si>
   <si>
     <t>089.BVDKHVB</t>
   </si>
   <si>
+    <t>10008</t>
+  </si>
+  <si>
     <t>Bệnh viện đa khoa huyện Văn Bàn</t>
   </si>
   <si>
-    <t>fi6MjthhuHC</t>
-  </si>
-  <si>
     <t>Việt Nam, Lào Cai, Huyện Văn Bàn</t>
   </si>
   <si>
@@ -199,90 +199,81 @@
     <t>Chi cục An toàn vệ sinh thực phẩm tỉnh Lào Cai</t>
   </si>
   <si>
-    <t>GPRBjRrRHST</t>
-  </si>
-  <si>
     <t>10.CCDS-KTLC</t>
   </si>
   <si>
     <t>Chi cục Dân số - KHHGĐ tỉnh Lào Cai</t>
   </si>
   <si>
-    <t>J8wg1cQNFjw</t>
-  </si>
-  <si>
     <t>082</t>
   </si>
   <si>
+    <t>1002</t>
+  </si>
+  <si>
     <t>Huyện Bát Xát</t>
   </si>
   <si>
-    <t>GASydnKde8B</t>
-  </si>
-  <si>
     <t>086</t>
   </si>
   <si>
+    <t>1006</t>
+  </si>
+  <si>
     <t>Huyện Bảo Thắng</t>
   </si>
   <si>
-    <t>XnHvRoCnoh8</t>
-  </si>
-  <si>
     <t>087</t>
   </si>
   <si>
+    <t>1007</t>
+  </si>
+  <si>
     <t>Huyện Bảo Yên</t>
   </si>
   <si>
-    <t>FDLAhaKXXhj</t>
-  </si>
-  <si>
     <t>085</t>
   </si>
   <si>
+    <t>1005</t>
+  </si>
+  <si>
     <t>Huyện Bắc Hà</t>
   </si>
   <si>
-    <t>m9EM1zVsV6D</t>
-  </si>
-  <si>
     <t>083</t>
   </si>
   <si>
+    <t>1003</t>
+  </si>
+  <si>
     <t>Huyện Mường Khương</t>
   </si>
   <si>
-    <t>gVYLEShL90a</t>
-  </si>
-  <si>
     <t>084</t>
   </si>
   <si>
+    <t>1004</t>
+  </si>
+  <si>
     <t>Huyện Si Ma Cai</t>
   </si>
   <si>
-    <t>J9efihLEPIq</t>
-  </si>
-  <si>
     <t>089</t>
   </si>
   <si>
+    <t>1009</t>
+  </si>
+  <si>
     <t>Huyện Văn Bàn</t>
   </si>
   <si>
-    <t>DxU19MoP6Gm</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>Lào Cai</t>
   </si>
   <si>
-    <t>Loz5sNNUEKt</t>
-  </si>
-  <si>
     <t>Việt Nam</t>
   </si>
   <si>
@@ -292,1939 +283,1790 @@
     <t>PYT Huyện Bát Xát</t>
   </si>
   <si>
-    <t>SYu8LFcy5Qj</t>
-  </si>
-  <si>
     <t>086.PHBT</t>
   </si>
   <si>
     <t>PYT Huyện Bảo Thắng</t>
   </si>
   <si>
-    <t>uG7zEOYj24V</t>
-  </si>
-  <si>
     <t>087.PHBY</t>
   </si>
   <si>
     <t>PYT Huyện Bảo Yên</t>
   </si>
   <si>
-    <t>tKErVFnJllV</t>
-  </si>
-  <si>
     <t>085.PHBH</t>
   </si>
   <si>
     <t>PYT Huyện Bắc Hà</t>
   </si>
   <si>
-    <t>hbdAQZQXyB3</t>
-  </si>
-  <si>
     <t>083.PHMK</t>
   </si>
   <si>
     <t>PYT Huyện Mường Khương</t>
   </si>
   <si>
-    <t>HysgIIxPlVz</t>
-  </si>
-  <si>
     <t>088.PHSP</t>
   </si>
   <si>
     <t>PYT Huyện Sa Pa</t>
   </si>
   <si>
-    <t>pCXCqkJtlnb</t>
-  </si>
-  <si>
     <t>084.PHSMC</t>
   </si>
   <si>
     <t>PYT Huyện Si Ma Cai</t>
   </si>
   <si>
-    <t>FNH0tLtURnZ</t>
-  </si>
-  <si>
     <t>089.PHVB</t>
   </si>
   <si>
     <t>PYT Huyện Văn Bàn</t>
   </si>
   <si>
-    <t>AgddBnxZe9z</t>
-  </si>
-  <si>
     <t>080.PTPLC</t>
   </si>
   <si>
     <t>PYT Thành phố Lào Cai</t>
   </si>
   <si>
-    <t>JDcCn8xh7o3</t>
-  </si>
-  <si>
     <t>088.PKDBK</t>
   </si>
   <si>
+    <t>10053</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Bản Khoang</t>
   </si>
   <si>
-    <t>fW7jNPjCo3p</t>
-  </si>
-  <si>
     <t>083.PKDBL</t>
   </si>
   <si>
+    <t>10603</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Bản Lầu</t>
   </si>
   <si>
-    <t>tBAKhUepZyD</t>
-  </si>
-  <si>
     <t>087.PKDBH</t>
   </si>
   <si>
+    <t>10417</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Bảo Hà</t>
   </si>
   <si>
-    <t>fg7olvTGeFF</t>
-  </si>
-  <si>
     <t>085.PKDBN</t>
   </si>
   <si>
+    <t>10507</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Bảo Nhai</t>
   </si>
   <si>
-    <t>Jk2KaOP2sgN</t>
-  </si>
-  <si>
     <t>083.PKDCS</t>
   </si>
   <si>
+    <t>10610</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Cao Sơn</t>
   </si>
   <si>
-    <t>P6mBQ0Gklsn</t>
-  </si>
-  <si>
     <t>084.PKDCC</t>
   </si>
   <si>
+    <t>10030</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Cán Cấu (sáp nhập)</t>
   </si>
   <si>
-    <t>M7YgI1Dj1DU</t>
-  </si>
-  <si>
     <t>085.PKDLP</t>
   </si>
   <si>
+    <t>10505</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Lùng Phình</t>
   </si>
   <si>
-    <t>YBJhYShtpyo</t>
-  </si>
-  <si>
     <t>089.PKDML</t>
   </si>
   <si>
+    <t>10804</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Minh Lương</t>
   </si>
   <si>
-    <t>s8Yyoj5pRoK</t>
-  </si>
-  <si>
     <t>087.PKDND</t>
   </si>
   <si>
+    <t>10402</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Nghĩa Đô</t>
   </si>
   <si>
-    <t>gTyIMCU7UZo</t>
-  </si>
-  <si>
     <t>083.PKDPL</t>
   </si>
   <si>
+    <t>10609</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Pha Long</t>
   </si>
   <si>
-    <t>UEGIq9Y8AUq</t>
-  </si>
-  <si>
     <t>086.PKDPH</t>
   </si>
   <si>
+    <t>10312</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Phong Hải</t>
   </si>
   <si>
-    <t>LdYCadgjWdT</t>
-  </si>
-  <si>
     <t>080.PKDPH</t>
   </si>
   <si>
+    <t>10012</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Pom Hán</t>
   </si>
   <si>
-    <t>CoI1De4qdeN</t>
-  </si>
-  <si>
     <t>084.PKDSC</t>
   </si>
   <si>
+    <t>10029</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Sín Chéng (sáp nhập)</t>
   </si>
   <si>
-    <t>Re8P4lwltMZ</t>
-  </si>
-  <si>
     <t>088.PKDTP</t>
   </si>
   <si>
+    <t>10905</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Thanh Phú</t>
   </si>
   <si>
-    <t>LXtP2ChEz5f</t>
-  </si>
-  <si>
     <t>086.PKDTL</t>
   </si>
   <si>
+    <t>10315</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Tằng Loỏng</t>
   </si>
   <si>
-    <t>m9VVto2g89I</t>
-  </si>
-  <si>
     <t>089.PKDVL</t>
   </si>
   <si>
+    <t>10814</t>
+  </si>
+  <si>
     <t>Phòng khám ĐKKV Võ Lao</t>
   </si>
   <si>
-    <t>FUbGDLn0Ug3</t>
-  </si>
-  <si>
     <t>082.PKDKKVBX</t>
   </si>
   <si>
     <t>Phòng khám đa khoa khu vực Bát Xát</t>
   </si>
   <si>
-    <t>whlrOdqW9qF</t>
-  </si>
-  <si>
     <t>082.PKDKKVMH</t>
   </si>
   <si>
+    <t>10707</t>
+  </si>
+  <si>
     <t>Phòng khám đa khoa khu vực Mường Hum</t>
   </si>
   <si>
-    <t>swenz7TK11i</t>
-  </si>
-  <si>
     <t>082.PKDKKVTT</t>
   </si>
   <si>
+    <t>10708</t>
+  </si>
+  <si>
     <t>Phòng khám đa khoa khu vực Trịnh Tường</t>
   </si>
   <si>
-    <t>gyT5eBHo4ID</t>
-  </si>
-  <si>
     <t>02658</t>
   </si>
   <si>
+    <t>10044</t>
+  </si>
+  <si>
     <t>Phường Bình Minh</t>
   </si>
   <si>
-    <t>bwbkqaVUKHc</t>
-  </si>
-  <si>
     <t>02668</t>
   </si>
   <si>
+    <t>10019</t>
+  </si>
+  <si>
     <t>Phường Bắc Cường</t>
   </si>
   <si>
-    <t>UHPf638Cks0</t>
-  </si>
-  <si>
     <t>02650</t>
   </si>
   <si>
+    <t>10037</t>
+  </si>
+  <si>
     <t>Phường Bắc Lệnh</t>
   </si>
   <si>
-    <t>LydoaEYG9yn</t>
+    <t>10918</t>
   </si>
   <si>
     <t>Phường Cầu Mây</t>
   </si>
   <si>
-    <t>swco56PSYL0</t>
-  </si>
-  <si>
     <t>02644</t>
   </si>
   <si>
+    <t>10014</t>
+  </si>
+  <si>
     <t>Phường Cốc Lếu</t>
   </si>
   <si>
-    <t>aX1BFR6ndPi</t>
-  </si>
-  <si>
     <t>02635</t>
   </si>
   <si>
+    <t>10036</t>
+  </si>
+  <si>
     <t>Phường Duyên Hải</t>
   </si>
   <si>
-    <t>zRvOi9FmOsT</t>
-  </si>
-  <si>
     <t>03002</t>
   </si>
   <si>
+    <t>10913</t>
+  </si>
+  <si>
     <t>Phường Hàm Rồng</t>
   </si>
   <si>
-    <t>CjE6vU9RRS6</t>
-  </si>
-  <si>
     <t>02647</t>
   </si>
   <si>
+    <t>10020</t>
+  </si>
+  <si>
     <t>Phường Kim Tân</t>
   </si>
   <si>
-    <t>xuHIgfElpqd</t>
-  </si>
-  <si>
     <t>02641</t>
   </si>
   <si>
+    <t>10015</t>
+  </si>
+  <si>
     <t>Phường Lào Cai</t>
   </si>
   <si>
-    <t>RpkkZH5CwZz</t>
-  </si>
-  <si>
     <t>02671</t>
   </si>
   <si>
+    <t>10041</t>
+  </si>
+  <si>
     <t>Phường Nam Cường</t>
   </si>
   <si>
-    <t>DYqEoKREbTr</t>
-  </si>
-  <si>
     <t>Phường Phan Si Păng</t>
   </si>
   <si>
-    <t>f9KwbjeL4Vi</t>
-  </si>
-  <si>
-    <t>03006</t>
-  </si>
-  <si>
     <t>Phường Phố Mới (sáp nhập)</t>
   </si>
   <si>
-    <t>DzYfhIBkrmO</t>
-  </si>
-  <si>
     <t>02653</t>
   </si>
   <si>
     <t>Phường Pom Hán</t>
   </si>
   <si>
-    <t>euSXitgjOcA</t>
-  </si>
-  <si>
     <t>03001</t>
   </si>
   <si>
+    <t>10092</t>
+  </si>
+  <si>
     <t>Phường Sa Pa</t>
   </si>
   <si>
-    <t>qGsJFK78S2B</t>
-  </si>
-  <si>
     <t>Phường Sa Pả</t>
   </si>
   <si>
-    <t>bzDTTLgccnh</t>
-  </si>
-  <si>
     <t>02659</t>
   </si>
   <si>
+    <t>10038</t>
+  </si>
+  <si>
     <t>Phường Thống Nhất</t>
   </si>
   <si>
-    <t>XwUf76Am8Xt</t>
-  </si>
-  <si>
     <t>02656</t>
   </si>
   <si>
+    <t>10039</t>
+  </si>
+  <si>
     <t>Phường Xuân Tăng</t>
   </si>
   <si>
-    <t>NhHSoLriWHC</t>
-  </si>
-  <si>
     <t>Phường Ô Quý Hồ</t>
   </si>
   <si>
-    <t>hmpgxMQBQLV</t>
-  </si>
-  <si>
-    <t>03003</t>
-  </si>
-  <si>
     <t>10.SYTLC</t>
   </si>
   <si>
     <t>Sở Y tế Lào Cai</t>
   </si>
   <si>
-    <t>yknHor0iK4i</t>
-  </si>
-  <si>
     <t>082.THBX</t>
   </si>
   <si>
+    <t>10082</t>
+  </si>
+  <si>
     <t>TTYT Huyện Bát Xát</t>
   </si>
   <si>
-    <t>xFaQEuoPxme</t>
-  </si>
-  <si>
     <t>086.THBT</t>
   </si>
   <si>
     <t>TTYT Huyện Bảo Thắng</t>
   </si>
   <si>
-    <t>klQU3LC75Wc</t>
-  </si>
-  <si>
     <t>087.THBY</t>
   </si>
   <si>
     <t>TTYT Huyện Bảo Yên</t>
   </si>
   <si>
-    <t>CS0jPMLv4d1</t>
-  </si>
-  <si>
     <t>085.THBH</t>
   </si>
   <si>
+    <t>10501</t>
+  </si>
+  <si>
     <t>TTYT Huyện Bắc Hà</t>
   </si>
   <si>
-    <t>jwDVYcRVqZC</t>
-  </si>
-  <si>
     <t>083.THMK</t>
   </si>
   <si>
     <t>TTYT Huyện Mường Khương</t>
   </si>
   <si>
-    <t>ZTePVogoxya</t>
-  </si>
-  <si>
     <t>088.THSP</t>
   </si>
   <si>
+    <t>10075</t>
+  </si>
+  <si>
     <t>TTYT Huyện Sa Pa</t>
   </si>
   <si>
-    <t>EQuakdswrkt</t>
-  </si>
-  <si>
     <t>084.THSMC</t>
   </si>
   <si>
     <t>TTYT Huyện Si Ma Cai</t>
   </si>
   <si>
-    <t>uBhTkt9fE0z</t>
-  </si>
-  <si>
     <t>089.THVB</t>
   </si>
   <si>
+    <t>10080</t>
+  </si>
+  <si>
     <t>TTYT Huyện Văn Bàn</t>
   </si>
   <si>
-    <t>CueIsKBFUjQ</t>
-  </si>
-  <si>
     <t>080.TTPLC</t>
   </si>
   <si>
+    <t>10002</t>
+  </si>
+  <si>
     <t>TTYT Thành phố Lào Cai</t>
   </si>
   <si>
-    <t>Tv0g3JwbF5N</t>
-  </si>
-  <si>
     <t>080</t>
   </si>
   <si>
+    <t>1001</t>
+  </si>
+  <si>
     <t>Thành phố Lào Cai</t>
   </si>
   <si>
-    <t>Zad7S6xzUXt</t>
-  </si>
-  <si>
     <t>02683</t>
   </si>
   <si>
+    <t>10701</t>
+  </si>
+  <si>
     <t>Thị trấn Bát Xát</t>
   </si>
   <si>
-    <t>AJ8W1G88Vyc</t>
-  </si>
-  <si>
     <t>02839</t>
   </si>
   <si>
     <t>Thị trấn Bắc Hà</t>
   </si>
   <si>
-    <t>RjcKYEzUYTW</t>
-  </si>
-  <si>
     <t>03055</t>
   </si>
   <si>
+    <t>10047</t>
+  </si>
+  <si>
     <t>Thị trấn Khánh Yên</t>
   </si>
   <si>
-    <t>iNgAsx7xD7A</t>
-  </si>
-  <si>
     <t>02761</t>
   </si>
   <si>
+    <t>10601</t>
+  </si>
+  <si>
     <t>Thị trấn Mường Khương</t>
   </si>
   <si>
-    <t>n95KCwYE7ST</t>
-  </si>
-  <si>
     <t>02902</t>
   </si>
   <si>
+    <t>10045</t>
+  </si>
+  <si>
     <t>Thị trấn N.T Phong Hải</t>
   </si>
   <si>
-    <t>idlyVohGGkc</t>
-  </si>
-  <si>
     <t>02905</t>
   </si>
   <si>
+    <t>10301</t>
+  </si>
+  <si>
     <t>Thị trấn Phố Lu</t>
   </si>
   <si>
-    <t>k2x9uCyfRYz</t>
-  </si>
-  <si>
     <t>02947</t>
   </si>
   <si>
+    <t>10401</t>
+  </si>
+  <si>
     <t>Thị trấn Phố Ràng</t>
   </si>
   <si>
-    <t>dkLhwKpale7</t>
-  </si>
-  <si>
     <t>02908</t>
   </si>
   <si>
     <t>Thị trấn Tằng Loỏng</t>
   </si>
   <si>
-    <t>aHCcpNIvuYn</t>
-  </si>
-  <si>
     <t>088</t>
   </si>
   <si>
+    <t>1008</t>
+  </si>
+  <si>
     <t>Thị xã Sa Pa</t>
   </si>
   <si>
-    <t>hcr3fdwkmu0</t>
-  </si>
-  <si>
     <t>10.TTCSSKSSTLC</t>
   </si>
   <si>
     <t>Trung tâm Chăm sóc SKSS tỉnh Lào Cai (Sáp nhập 2022)</t>
   </si>
   <si>
-    <t>tkOu5yICj7C</t>
-  </si>
-  <si>
     <t>10.TTGDYKTLC</t>
   </si>
   <si>
     <t>Trung tâm Giám định y khoa tỉnh Lào Cai</t>
   </si>
   <si>
-    <t>jdW478eMUDm</t>
-  </si>
-  <si>
     <t>10.TTKDYTQ</t>
   </si>
   <si>
     <t>Trung tâm Kiểm dịch y tế quốc tế</t>
   </si>
   <si>
-    <t>uk9ci10WyJp</t>
-  </si>
-  <si>
     <t>10.TTKN</t>
   </si>
   <si>
     <t>Trung tâm Kiểm nghiệm</t>
   </si>
   <si>
-    <t>eMFQIPxSiDE</t>
-  </si>
-  <si>
     <t>10.TTKSBT</t>
   </si>
   <si>
     <t xml:space="preserve">Trung tâm Kiểm soát bệnh tật </t>
   </si>
   <si>
-    <t>GowQC00lyyz</t>
-  </si>
-  <si>
     <t>10.TTPYTLC</t>
   </si>
   <si>
     <t>Trung tâm Pháp y tỉnh Lào Cai</t>
   </si>
   <si>
-    <t>GIx7ch45g9w</t>
-  </si>
-  <si>
     <t>10.TTPCHTL</t>
   </si>
   <si>
     <t>Trung tâm Phòng chống HIV/AIDS tỉnh Lào Cai (Sáp nhập 2022)</t>
   </si>
   <si>
-    <t>AJ6kTCTicsb</t>
-  </si>
-  <si>
     <t>02692</t>
   </si>
   <si>
+    <t>10712</t>
+  </si>
+  <si>
     <t>Xã A Lù</t>
   </si>
   <si>
-    <t>bpiJHCmgxkh</t>
-  </si>
-  <si>
     <t>02686</t>
   </si>
   <si>
+    <t>10718</t>
+  </si>
+  <si>
     <t>Xã A Mú Sung</t>
   </si>
   <si>
-    <t>BZVtO1CyBOp</t>
-  </si>
-  <si>
     <t>02899</t>
   </si>
   <si>
+    <t>10521</t>
+  </si>
+  <si>
     <t>Xã Bản Cái</t>
   </si>
   <si>
-    <t>VsId1aZv7DU</t>
-  </si>
-  <si>
     <t>02914</t>
   </si>
   <si>
+    <t>10310</t>
+  </si>
+  <si>
     <t>Xã Bản Cầm</t>
   </si>
   <si>
-    <t>tpZ852vZUKR</t>
-  </si>
-  <si>
     <t>02845</t>
   </si>
   <si>
+    <t>10511</t>
+  </si>
+  <si>
     <t>Xã Bản Già (sáp nhập 2020)</t>
   </si>
   <si>
-    <t>eRQbiFA0bXi</t>
-  </si>
-  <si>
     <t>03046</t>
   </si>
   <si>
+    <t>10906</t>
+  </si>
+  <si>
     <t>Xã Bản Hồ</t>
   </si>
   <si>
-    <t>b9bsZDepR1q</t>
-  </si>
-  <si>
     <t>03004</t>
   </si>
   <si>
     <t>Xã Bản Khoang (sáp nhập)</t>
   </si>
   <si>
-    <t>hxpaTjhpPbe</t>
-  </si>
-  <si>
     <t>02869</t>
   </si>
   <si>
+    <t>10504</t>
+  </si>
+  <si>
     <t>Xã Bản Liền</t>
   </si>
   <si>
-    <t>xhsmk2C7moh</t>
-  </si>
-  <si>
     <t>02788</t>
   </si>
   <si>
+    <t>10049</t>
+  </si>
+  <si>
     <t>Xã Bản Lầu</t>
   </si>
   <si>
-    <t>cQKKbpA9zIB</t>
-  </si>
-  <si>
     <t>02806</t>
   </si>
   <si>
+    <t>10023</t>
+  </si>
+  <si>
     <t>Xã Bản Mế</t>
   </si>
   <si>
-    <t>TKKhLIJLL4A</t>
-  </si>
-  <si>
     <t>02911</t>
   </si>
   <si>
+    <t>10311</t>
+  </si>
+  <si>
     <t>Xã Bản Phiệt</t>
   </si>
   <si>
-    <t>iHKArBDjvUi</t>
-  </si>
-  <si>
     <t>02866</t>
   </si>
   <si>
+    <t>10510</t>
+  </si>
+  <si>
     <t>Xã Bản Phố</t>
   </si>
   <si>
-    <t>f7XO16swIWi</t>
-  </si>
-  <si>
     <t>02716</t>
   </si>
   <si>
+    <t>10704</t>
+  </si>
+  <si>
     <t>Xã Bản Qua</t>
   </si>
   <si>
-    <t>JwCkQ9g8xka</t>
-  </si>
-  <si>
     <t>02797</t>
   </si>
   <si>
+    <t>10604</t>
+  </si>
+  <si>
     <t>Xã Bản Sen</t>
   </si>
   <si>
-    <t>zeLYnyTFkUU</t>
-  </si>
-  <si>
     <t>02710</t>
   </si>
   <si>
+    <t>10085</t>
+  </si>
+  <si>
     <t>Xã Bản Vược</t>
   </si>
   <si>
-    <t>PWt5En2n1FH</t>
-  </si>
-  <si>
     <t>02725</t>
   </si>
   <si>
+    <t>10086</t>
+  </si>
+  <si>
     <t>Xã Bản Xèo</t>
   </si>
   <si>
-    <t>dAkcUFYgK19</t>
-  </si>
-  <si>
     <t>02989</t>
   </si>
   <si>
     <t>Xã Bảo Hà</t>
   </si>
   <si>
-    <t>ekq37JufZD0</t>
-  </si>
-  <si>
     <t>02890</t>
   </si>
   <si>
     <t>Xã Bảo Nhai</t>
   </si>
   <si>
-    <t>bb96nPxLxFe</t>
-  </si>
-  <si>
     <t>02974</t>
   </si>
   <si>
+    <t>10408</t>
+  </si>
+  <si>
     <t>Xã Cam Cọn</t>
   </si>
   <si>
-    <t>Z3xcGY3M5yg</t>
-  </si>
-  <si>
     <t>02674</t>
   </si>
   <si>
+    <t>10040</t>
+  </si>
+  <si>
     <t>Xã Cam Đường</t>
   </si>
   <si>
-    <t>DvNTLPdIoEL</t>
-  </si>
-  <si>
     <t>02782</t>
   </si>
   <si>
     <t>Xã Cao Sơn</t>
   </si>
   <si>
-    <t>edj6jto1jM7</t>
-  </si>
-  <si>
     <t>03091</t>
   </si>
   <si>
+    <t>10809</t>
+  </si>
+  <si>
     <t>Xã Chiềng Ken</t>
   </si>
   <si>
-    <t>ED4VlfVSqgc</t>
-  </si>
-  <si>
     <t>02821</t>
   </si>
   <si>
     <t>Xã Cán Cấu</t>
   </si>
   <si>
-    <t>UqInSuP99ko</t>
-  </si>
-  <si>
     <t>02878</t>
   </si>
   <si>
+    <t>10509</t>
+  </si>
+  <si>
     <t>Xã Cốc Ly</t>
   </si>
   <si>
-    <t>zIS4DnkvEQr</t>
-  </si>
-  <si>
     <t>02896</t>
   </si>
   <si>
+    <t>10508</t>
+  </si>
+  <si>
     <t>Xã Cốc Lầu</t>
   </si>
   <si>
-    <t>ScR1niKZx1C</t>
-  </si>
-  <si>
     <t>02704</t>
   </si>
   <si>
+    <t>10705</t>
+  </si>
+  <si>
     <t>Xã Cốc Mỳ</t>
   </si>
   <si>
-    <t>HeukvS4UzsG</t>
-  </si>
-  <si>
     <t>02746</t>
   </si>
   <si>
+    <t>10723</t>
+  </si>
+  <si>
     <t>Xã Cốc San</t>
   </si>
   <si>
-    <t>Gx3zE2yiKSh</t>
-  </si>
-  <si>
     <t>02764</t>
   </si>
   <si>
+    <t>10612</t>
+  </si>
+  <si>
     <t>Xã Dìn Chin</t>
   </si>
   <si>
-    <t>BBn9wxJ3zCU</t>
-  </si>
-  <si>
     <t>03106</t>
   </si>
   <si>
+    <t>10089</t>
+  </si>
+  <si>
     <t>Xã Dương Quỳ</t>
   </si>
   <si>
-    <t>pfxFRWPXk1T</t>
-  </si>
-  <si>
     <t>03088</t>
   </si>
   <si>
+    <t>10818</t>
+  </si>
+  <si>
     <t>Xã Dần Thàng</t>
   </si>
   <si>
-    <t>m5KLg1EfBDC</t>
-  </si>
-  <si>
     <t>02707</t>
   </si>
   <si>
+    <t>10719</t>
+  </si>
+  <si>
     <t>Xã Dền Sáng</t>
   </si>
   <si>
-    <t>hO4qu1nZNJO</t>
-  </si>
-  <si>
     <t>02722</t>
   </si>
   <si>
+    <t>10709</t>
+  </si>
+  <si>
     <t>Xã Dền Thàng</t>
   </si>
   <si>
-    <t>Yd4UwilRC5J</t>
-  </si>
-  <si>
     <t>02923</t>
   </si>
   <si>
+    <t>10309</t>
+  </si>
+  <si>
     <t>Xã Gia Phú</t>
   </si>
   <si>
-    <t>XQLYE8ZTScS</t>
-  </si>
-  <si>
     <t>03097</t>
   </si>
   <si>
+    <t>10807</t>
+  </si>
+  <si>
     <t>Xã Hoà Mạc</t>
   </si>
   <si>
-    <t>AdgjBDnyXV3</t>
-  </si>
-  <si>
     <t>03019</t>
   </si>
   <si>
+    <t>10912</t>
+  </si>
+  <si>
     <t>Xã Hoàng Liên</t>
   </si>
   <si>
-    <t>cOueGsWw2lF</t>
-  </si>
-  <si>
     <t>02863</t>
   </si>
   <si>
+    <t>10516</t>
+  </si>
+  <si>
     <t>Xã Hoàng Thu Phố</t>
   </si>
   <si>
-    <t>hwVzpaq8hwq</t>
-  </si>
-  <si>
     <t>03025</t>
   </si>
   <si>
+    <t>10910</t>
+  </si>
+  <si>
     <t>Xã Hầu Thào</t>
   </si>
   <si>
-    <t>HPO7B8ardOH</t>
-  </si>
-  <si>
     <t>02680</t>
   </si>
   <si>
+    <t>10087</t>
+  </si>
+  <si>
     <t>Xã Hợp Thành</t>
   </si>
   <si>
-    <t>r9mEXwkZTnx</t>
-  </si>
-  <si>
     <t>03103</t>
   </si>
   <si>
+    <t>10802</t>
+  </si>
+  <si>
     <t>Xã Khánh Yên Hạ</t>
   </si>
   <si>
-    <t>nd6dFyRTO0C</t>
-  </si>
-  <si>
     <t>03082</t>
   </si>
   <si>
+    <t>10801</t>
+  </si>
+  <si>
     <t>Xã Khánh Yên Thượng</t>
   </si>
   <si>
-    <t>Ztvj04kiHtp</t>
-  </si>
-  <si>
     <t>03100</t>
   </si>
   <si>
+    <t>10803</t>
+  </si>
+  <si>
     <t>Xã Khánh Yên Trung</t>
   </si>
   <si>
-    <t>QyQttJSq1aD</t>
-  </si>
-  <si>
     <t>02971</t>
   </si>
   <si>
+    <t>10416</t>
+  </si>
+  <si>
     <t>Xã Kim Sơn</t>
   </si>
   <si>
-    <t>sVNAJJjYAoj</t>
-  </si>
-  <si>
     <t>02791</t>
   </si>
   <si>
+    <t>10611</t>
+  </si>
+  <si>
     <t>Xã La Pan Tẩn</t>
   </si>
   <si>
-    <t>wWjvqmvVEO4</t>
-  </si>
-  <si>
     <t>03028</t>
   </si>
   <si>
     <t>Xã Lao Chải</t>
   </si>
   <si>
-    <t>vUhfWoRycTo</t>
-  </si>
-  <si>
     <t>03118</t>
   </si>
   <si>
+    <t>10810</t>
+  </si>
+  <si>
     <t>Xã Liêm Phú</t>
   </si>
   <si>
-    <t>gewTbe9RH4h</t>
-  </si>
-  <si>
     <t>2051533</t>
   </si>
   <si>
+    <t>10413</t>
+  </si>
+  <si>
     <t>Xã Long Phúc (sáp nhập)</t>
   </si>
   <si>
-    <t>KQZpMSEGD0V</t>
-  </si>
-  <si>
     <t>03094</t>
   </si>
   <si>
+    <t>10808</t>
+  </si>
+  <si>
     <t>Xã Làng Giàng</t>
   </si>
   <si>
-    <t>ybhQhR9Igqr</t>
-  </si>
-  <si>
     <t>02842</t>
   </si>
   <si>
+    <t>10514</t>
+  </si>
+  <si>
     <t>Xã Lùng Cải</t>
   </si>
   <si>
-    <t>lDsRmtiZlJU</t>
-  </si>
-  <si>
     <t>02776</t>
   </si>
   <si>
+    <t>10607</t>
+  </si>
+  <si>
     <t>Xã Lùng Khấu Nhin</t>
   </si>
   <si>
-    <t>cTTaQ6PrRNQ</t>
-  </si>
-  <si>
     <t>02848</t>
   </si>
   <si>
     <t>Xã Lùng Phình</t>
   </si>
   <si>
-    <t>S7omzKFPsEE</t>
-  </si>
-  <si>
     <t>02818</t>
   </si>
   <si>
     <t>Xã Lùng Thẩn</t>
   </si>
   <si>
-    <t>TM70DjQJw4j</t>
-  </si>
-  <si>
     <t>02785</t>
   </si>
   <si>
+    <t>10608</t>
+  </si>
+  <si>
     <t>Xã Lùng Vai</t>
   </si>
   <si>
-    <t>NBAh1YTX3dC</t>
-  </si>
-  <si>
     <t>02992</t>
   </si>
   <si>
+    <t>10411</t>
+  </si>
+  <si>
     <t>Xã Lương Sơn</t>
   </si>
   <si>
-    <t>RPpadSBizjc</t>
-  </si>
-  <si>
     <t>02860</t>
   </si>
   <si>
+    <t>10518</t>
+  </si>
+  <si>
     <t>Xã Lầu Thí Ngài (sáp nhập 2020)</t>
   </si>
   <si>
-    <t>qiK0KA9gapU</t>
-  </si>
-  <si>
     <t>02833</t>
   </si>
   <si>
+    <t>10028</t>
+  </si>
+  <si>
     <t>Xã Lử Thẩn (sáp nhập)</t>
   </si>
   <si>
-    <t>oarixqsGP85</t>
-  </si>
-  <si>
     <t>03112</t>
   </si>
   <si>
     <t>Xã Minh Lương</t>
   </si>
   <si>
-    <t>IyPoFKuj8Yk</t>
-  </si>
-  <si>
     <t>02977</t>
   </si>
   <si>
+    <t>10415</t>
+  </si>
+  <si>
     <t>Xã Minh Tân</t>
   </si>
   <si>
-    <t>owd39fM0NtV</t>
-  </si>
-  <si>
     <t>03043</t>
   </si>
   <si>
+    <t>10052</t>
+  </si>
+  <si>
     <t>Xã Mường Bo (sáp nhập)</t>
   </si>
   <si>
-    <t>RnUSCYOpTSN</t>
-  </si>
-  <si>
     <t>02728</t>
   </si>
   <si>
     <t>Xã Mường Hum</t>
   </si>
   <si>
-    <t>aKWQS84hy2m</t>
-  </si>
-  <si>
     <t>02719</t>
   </si>
   <si>
+    <t>10706</t>
+  </si>
+  <si>
     <t>Xã Mường Vi</t>
   </si>
   <si>
-    <t>dZ7cDwXs3gp</t>
-  </si>
-  <si>
     <t>02815</t>
   </si>
   <si>
+    <t>10026</t>
+  </si>
+  <si>
     <t>Xã Mản Thẩn (sáp nhập)</t>
   </si>
   <si>
-    <t>ohuN8CiwLaX</t>
-  </si>
-  <si>
     <t>02875</t>
   </si>
   <si>
+    <t>10503</t>
+  </si>
+  <si>
     <t>Xã Na Hối</t>
   </si>
   <si>
-    <t>ZXov42vAZRL</t>
-  </si>
-  <si>
     <t>02953</t>
   </si>
   <si>
     <t>Xã Nghĩa Đô</t>
   </si>
   <si>
-    <t>HL9fulXoFCK</t>
-  </si>
-  <si>
     <t>03007</t>
   </si>
   <si>
+    <t>10916</t>
+  </si>
+  <si>
     <t>Xã Ngũ Chỉ Sơn</t>
   </si>
   <si>
-    <t>I65ZIcxVeBq</t>
-  </si>
-  <si>
     <t>02698</t>
   </si>
   <si>
+    <t>10713</t>
+  </si>
+  <si>
     <t>Xã Ngải Thầu (sáp nhập)</t>
   </si>
   <si>
-    <t>NPUjP7qbDVZ</t>
-  </si>
-  <si>
     <t>02800</t>
   </si>
   <si>
+    <t>10027</t>
+  </si>
+  <si>
     <t>Xã Nàn Sán</t>
   </si>
   <si>
-    <t>ycSbnEFlRxh</t>
-  </si>
-  <si>
     <t>02836</t>
   </si>
   <si>
+    <t>10033</t>
+  </si>
+  <si>
     <t>Xã Nàn Xín</t>
   </si>
   <si>
-    <t>Pqtomh1ASKE</t>
-  </si>
-  <si>
     <t>02773</t>
   </si>
   <si>
+    <t>10606</t>
+  </si>
+  <si>
     <t>Xã Nấm Lư</t>
   </si>
   <si>
-    <t>MUJ6RVquFvI</t>
-  </si>
-  <si>
     <t>03052</t>
   </si>
   <si>
     <t>Xã Nậm Cang</t>
   </si>
   <si>
-    <t>O0OhV0mtevZ</t>
-  </si>
-  <si>
     <t>02689</t>
   </si>
   <si>
+    <t>10720</t>
+  </si>
+  <si>
     <t>Xã Nậm Chạc</t>
   </si>
   <si>
-    <t>nRhJKoOCKBt</t>
-  </si>
-  <si>
     <t>02770</t>
   </si>
   <si>
+    <t>10613</t>
+  </si>
+  <si>
     <t>Xã Nậm Chảy</t>
   </si>
   <si>
-    <t>nnSSQ41FWOr</t>
-  </si>
-  <si>
     <t>03076</t>
   </si>
   <si>
+    <t>10819</t>
+  </si>
+  <si>
     <t>Xã Nậm Chầy</t>
   </si>
   <si>
-    <t>wZ6flyEgAWX</t>
-  </si>
-  <si>
     <t>02887</t>
   </si>
   <si>
+    <t>10519</t>
+  </si>
+  <si>
     <t>Xã Nậm Khánh</t>
   </si>
   <si>
-    <t>EhRWkUCXNwU</t>
-  </si>
-  <si>
     <t>02893</t>
   </si>
   <si>
+    <t>10088</t>
+  </si>
+  <si>
     <t>Xã Nậm Lúc</t>
   </si>
   <si>
-    <t>LYRP2t1Z3qP</t>
-  </si>
-  <si>
     <t>02881</t>
   </si>
   <si>
+    <t>10506</t>
+  </si>
+  <si>
     <t>Xã Nậm Mòn</t>
   </si>
   <si>
-    <t>woF8G70gZEs</t>
-  </si>
-  <si>
     <t>03067</t>
   </si>
   <si>
+    <t>10821</t>
+  </si>
+  <si>
     <t>Xã Nậm Mả</t>
   </si>
   <si>
-    <t>HHZ1tRGwVDt</t>
-  </si>
-  <si>
     <t>02740</t>
   </si>
   <si>
+    <t>10717</t>
+  </si>
+  <si>
     <t>Xã Nậm Pung</t>
   </si>
   <si>
-    <t>XV0nYjSpPbg</t>
-  </si>
-  <si>
     <t>03073</t>
   </si>
   <si>
+    <t>10822</t>
+  </si>
+  <si>
     <t>Xã Nậm Rạng</t>
   </si>
   <si>
-    <t>ng8jAgd7Rtn</t>
-  </si>
-  <si>
     <t>03049</t>
   </si>
   <si>
+    <t>10904</t>
+  </si>
+  <si>
     <t>Xã Nậm Sài</t>
   </si>
   <si>
-    <t>N1ii4bHD30U</t>
-  </si>
-  <si>
     <t>03109</t>
   </si>
   <si>
+    <t>10820</t>
+  </si>
+  <si>
     <t>Xã Nậm Tha</t>
   </si>
   <si>
-    <t>P6mblpHpzI9</t>
-  </si>
-  <si>
     <t>03121</t>
   </si>
   <si>
+    <t>10817</t>
+  </si>
+  <si>
     <t>Xã Nậm Xây</t>
   </si>
   <si>
-    <t>nFKvYQFVYuZ</t>
-  </si>
-  <si>
     <t>03085</t>
   </si>
   <si>
+    <t>10816</t>
+  </si>
+  <si>
     <t>Xã Nậm Xé</t>
   </si>
   <si>
-    <t>DgMjHvfLIsR</t>
-  </si>
-  <si>
     <t>02884</t>
   </si>
   <si>
+    <t>10520</t>
+  </si>
+  <si>
     <t>Xã Nậm Đét</t>
   </si>
   <si>
-    <t>Z6Lf76ZP7ph</t>
-  </si>
-  <si>
     <t>02737</t>
   </si>
   <si>
+    <t>10716</t>
+  </si>
+  <si>
     <t>Xã Pa Cheo</t>
   </si>
   <si>
-    <t>fTmND74oRYH</t>
-  </si>
-  <si>
     <t>02752</t>
   </si>
   <si>
     <t>Xã Pha Long</t>
   </si>
   <si>
-    <t>Xwyuq6tgWYh</t>
-  </si>
-  <si>
     <t>02920</t>
   </si>
   <si>
+    <t>10304</t>
+  </si>
+  <si>
     <t>Xã Phong Niên</t>
   </si>
   <si>
-    <t>YPof7498qQn</t>
-  </si>
-  <si>
     <t>02743</t>
   </si>
   <si>
+    <t>10714</t>
+  </si>
+  <si>
     <t>Xã Phìn Ngan</t>
   </si>
   <si>
-    <t>kKJDWKQsKlU</t>
-  </si>
-  <si>
     <t>02944</t>
   </si>
   <si>
+    <t>10314</t>
+  </si>
+  <si>
     <t>Xã Phú Nhuận</t>
   </si>
   <si>
-    <t>s0l6BMdAZOM</t>
-  </si>
-  <si>
     <t>02998</t>
   </si>
   <si>
+    <t>10412</t>
+  </si>
+  <si>
     <t>Xã Phúc Khánh</t>
   </si>
   <si>
-    <t>JO7mjP7I1G4</t>
-  </si>
-  <si>
     <t>02941</t>
   </si>
   <si>
+    <t>10302</t>
+  </si>
+  <si>
     <t>Xã Phố Lu</t>
   </si>
   <si>
-    <t>uWTj8x9wJnu</t>
-  </si>
-  <si>
     <t>02827</t>
   </si>
   <si>
     <t>Xã Quan Hồ Thẩn</t>
   </si>
   <si>
-    <t>Rbf3P5mNWTU</t>
-  </si>
-  <si>
     <t>02830</t>
   </si>
   <si>
+    <t>10034</t>
+  </si>
+  <si>
     <t>Xã Quan Thần Sán</t>
   </si>
   <si>
-    <t>cpAz6XEG0EP</t>
-  </si>
-  <si>
     <t>02734</t>
   </si>
   <si>
+    <t>10722</t>
+  </si>
+  <si>
     <t>Xã Quang Kim</t>
   </si>
   <si>
-    <t>T6Ctj6yZguN</t>
-  </si>
-  <si>
     <t>02809</t>
   </si>
   <si>
+    <t>10025</t>
+  </si>
+  <si>
     <t>Xã Si Ma Cai</t>
   </si>
   <si>
-    <t>qr5wV5lGue5</t>
-  </si>
-  <si>
     <t>03034</t>
   </si>
   <si>
+    <t>10902</t>
+  </si>
+  <si>
     <t>Xã Suối Thầu (sáp nhập)</t>
   </si>
   <si>
-    <t>DxNREgYNLVg</t>
-  </si>
-  <si>
     <t>02713</t>
   </si>
   <si>
+    <t>10711</t>
+  </si>
+  <si>
     <t>Xã Sàng Ma Sáo</t>
   </si>
   <si>
-    <t>Y8F2kg28mZi</t>
-  </si>
-  <si>
     <t>02812</t>
   </si>
   <si>
+    <t>10031</t>
+  </si>
+  <si>
     <t>Xã Sán Chải</t>
   </si>
   <si>
-    <t>E4uZPhU79R4</t>
-  </si>
-  <si>
     <t>02824</t>
   </si>
   <si>
+    <t>10064</t>
+  </si>
+  <si>
     <t>Xã Sín Chéng</t>
   </si>
   <si>
-    <t>c6d7kxNI51W</t>
-  </si>
-  <si>
     <t>02938</t>
   </si>
   <si>
+    <t>10306</t>
+  </si>
+  <si>
     <t>Xã Sơn Hà</t>
   </si>
   <si>
-    <t>HcZvxGp7M5d</t>
-  </si>
-  <si>
     <t>02929</t>
   </si>
   <si>
+    <t>10307</t>
+  </si>
+  <si>
     <t>Xã Sơn Hải</t>
   </si>
   <si>
-    <t>RDkCI2BVkqb</t>
-  </si>
-  <si>
     <t>03064</t>
   </si>
   <si>
+    <t>10811</t>
+  </si>
+  <si>
     <t>Xã Sơn Thủy</t>
   </si>
   <si>
-    <t>wgvBnmeKLjT</t>
-  </si>
-  <si>
     <t>03037</t>
   </si>
   <si>
     <t>Xã Sử Pán</t>
   </si>
   <si>
-    <t>Y5iHlj1Xhtl</t>
-  </si>
-  <si>
     <t>03022</t>
   </si>
   <si>
+    <t>10907</t>
+  </si>
+  <si>
     <t>Xã Thanh Bình</t>
   </si>
   <si>
-    <t>eTFZZ9GhzFt</t>
-  </si>
-  <si>
     <t>02779</t>
   </si>
   <si>
-    <t>nst7G7RGWq9</t>
+    <t>10602</t>
   </si>
   <si>
     <t>03031</t>
   </si>
   <si>
+    <t>10908</t>
+  </si>
+  <si>
     <t>Xã Thanh Kim (sáp nhập)</t>
   </si>
   <si>
-    <t>iKoi8wIIeqt</t>
-  </si>
-  <si>
     <t>02803</t>
   </si>
   <si>
+    <t>10032</t>
+  </si>
+  <si>
     <t>Xã Thào Chư Phìn</t>
   </si>
   <si>
-    <t>r3dgbvQ98is</t>
-  </si>
-  <si>
     <t>02917</t>
   </si>
   <si>
+    <t>10308</t>
+  </si>
+  <si>
     <t>Xã Thái Niên</t>
   </si>
   <si>
-    <t>wkd9EmdNE66</t>
-  </si>
-  <si>
     <t>02968</t>
   </si>
   <si>
+    <t>10103</t>
+  </si>
+  <si>
     <t>Xã Thượng Hà</t>
   </si>
   <si>
-    <t>igvuYvXD2ht</t>
-  </si>
-  <si>
     <t>02857</t>
   </si>
   <si>
+    <t>10513</t>
+  </si>
+  <si>
     <t>Xã Thải Giàng Phố</t>
   </si>
   <si>
-    <t>nPjZ03cc0QW</t>
-  </si>
-  <si>
     <t>03115</t>
   </si>
   <si>
+    <t>10805</t>
+  </si>
+  <si>
     <t>Xã Thẩm Dương</t>
   </si>
   <si>
-    <t>TN7hkStvoUA</t>
-  </si>
-  <si>
     <t>03010</t>
   </si>
   <si>
+    <t>10914</t>
+  </si>
+  <si>
     <t>Xã Trung Chải</t>
   </si>
   <si>
-    <t>XpcWg9prjKg</t>
-  </si>
-  <si>
     <t>02731</t>
   </si>
   <si>
+    <t>10715</t>
+  </si>
+  <si>
     <t>Xã Trung Lèng Hồ</t>
   </si>
   <si>
-    <t>BbWbvY1Wluq</t>
-  </si>
-  <si>
     <t>02935</t>
   </si>
   <si>
+    <t>10303</t>
+  </si>
+  <si>
     <t>Xã Trì Quang</t>
   </si>
   <si>
-    <t>W0S9OpmCFla</t>
-  </si>
-  <si>
     <t>02695</t>
   </si>
   <si>
     <t>Xã Trịnh Tường</t>
   </si>
   <si>
-    <t>BrYHvNmlOTM</t>
-  </si>
-  <si>
     <t>02758</t>
   </si>
   <si>
+    <t>10605</t>
+  </si>
+  <si>
     <t>Xã Tung Chung Phố</t>
   </si>
   <si>
-    <t>nqTA4Sc8zWu</t>
-  </si>
-  <si>
     <t>02872</t>
   </si>
   <si>
+    <t>10502</t>
+  </si>
+  <si>
     <t>Xã Tà Chải</t>
   </si>
   <si>
-    <t>D1KYgjjc4bV</t>
-  </si>
-  <si>
     <t>03079</t>
   </si>
   <si>
+    <t>10056</t>
+  </si>
+  <si>
     <t>Xã Tân An</t>
   </si>
   <si>
-    <t>gqD3oa3i3Oa</t>
-  </si>
-  <si>
     <t>02965</t>
   </si>
   <si>
+    <t>10406</t>
+  </si>
+  <si>
     <t>Xã Tân Dương</t>
   </si>
   <si>
-    <t>ziEM5clWm8b</t>
-  </si>
-  <si>
     <t>03070</t>
   </si>
   <si>
+    <t>10813</t>
+  </si>
+  <si>
     <t>Xã Tân Thượng</t>
   </si>
   <si>
-    <t>CPb39oMMuT6</t>
-  </si>
-  <si>
     <t>02950</t>
   </si>
   <si>
+    <t>10418</t>
+  </si>
+  <si>
     <t>Xã Tân Tiến</t>
   </si>
   <si>
-    <t>YegYekTIgGo</t>
-  </si>
-  <si>
     <t>02749</t>
   </si>
   <si>
+    <t>10721</t>
+  </si>
+  <si>
     <t>Xã Tòng Sành</t>
   </si>
   <si>
-    <t>S5vpqblkuWr</t>
-  </si>
-  <si>
     <t>02854</t>
   </si>
   <si>
+    <t>10517</t>
+  </si>
+  <si>
     <t>Xã Tả Củ Tỷ</t>
   </si>
   <si>
-    <t>jAww6BeFOJP</t>
-  </si>
-  <si>
     <t>02767</t>
   </si>
   <si>
+    <t>10616</t>
+  </si>
+  <si>
     <t>Xã Tả Gia Khâu</t>
   </si>
   <si>
-    <t>vlbjxZDDWm9</t>
-  </si>
-  <si>
     <t>02755</t>
   </si>
   <si>
+    <t>10615</t>
+  </si>
+  <si>
     <t>Xã Tả Ngải Chồ</t>
   </si>
   <si>
-    <t>N2E40PH3jhG</t>
-  </si>
-  <si>
     <t>03013</t>
   </si>
   <si>
+    <t>10915</t>
+  </si>
+  <si>
     <t>Xã Tả Phìn</t>
   </si>
   <si>
-    <t>CNfYpUR51PB</t>
-  </si>
-  <si>
     <t>02677</t>
   </si>
   <si>
+    <t>10042</t>
+  </si>
+  <si>
     <t>Xã Tả Phời</t>
   </si>
   <si>
-    <t>e7vvgHDG9ge</t>
-  </si>
-  <si>
     <t>02794</t>
   </si>
   <si>
+    <t>10614</t>
+  </si>
+  <si>
     <t>Xã Tả Thàng</t>
   </si>
   <si>
-    <t>bLCVUujr1Yf</t>
-  </si>
-  <si>
     <t>03040</t>
   </si>
   <si>
+    <t>10911</t>
+  </si>
+  <si>
     <t>Xã Tả Van</t>
   </si>
   <si>
-    <t>rQVolFxeVcM</t>
-  </si>
-  <si>
     <t>02851</t>
   </si>
   <si>
+    <t>10515</t>
+  </si>
+  <si>
     <t>Xã Tả Van Chư</t>
   </si>
   <si>
-    <t>oeRSIHOynUI</t>
-  </si>
-  <si>
     <t>02983</t>
   </si>
   <si>
+    <t>10407</t>
+  </si>
+  <si>
     <t>Xã Việt Tiến</t>
   </si>
   <si>
-    <t>I4R4ekRfUeJ</t>
-  </si>
-  <si>
     <t>03061</t>
   </si>
   <si>
+    <t>10057</t>
+  </si>
+  <si>
     <t>Xã Võ Lao</t>
   </si>
   <si>
-    <t>nZ4gpTwT3ff</t>
-  </si>
-  <si>
     <t>03058</t>
   </si>
   <si>
     <t>Xã Văn Sơn (sáp nhập 2022)</t>
   </si>
   <si>
-    <t>OItCpjyd4WP</t>
-  </si>
-  <si>
     <t>02956</t>
   </si>
   <si>
+    <t>10403</t>
+  </si>
+  <si>
     <t>Xã Vĩnh Yên</t>
   </si>
   <si>
-    <t>IamDT5cKrcn</t>
-  </si>
-  <si>
     <t>02665</t>
   </si>
   <si>
+    <t>10017</t>
+  </si>
+  <si>
     <t>Xã Vạn Hòa</t>
   </si>
   <si>
-    <t>pukERq0qqVF</t>
-  </si>
-  <si>
     <t>02932</t>
   </si>
   <si>
+    <t>10313</t>
+  </si>
+  <si>
     <t>Xã Xuân Giao</t>
   </si>
   <si>
-    <t>gSmT1YgSOeO</t>
-  </si>
-  <si>
     <t>02962</t>
   </si>
   <si>
+    <t>10404</t>
+  </si>
+  <si>
     <t>Xã Xuân Hoà</t>
   </si>
   <si>
-    <t>wiB2TADStRV</t>
-  </si>
-  <si>
     <t>02926</t>
   </si>
   <si>
+    <t>10316</t>
+  </si>
+  <si>
     <t>Xã Xuân Quang</t>
   </si>
   <si>
-    <t>IAwOTOFTrxX</t>
-  </si>
-  <si>
     <t>02980</t>
   </si>
   <si>
+    <t>10405</t>
+  </si>
+  <si>
     <t>Xã Xuân Thượng</t>
   </si>
   <si>
-    <t>eOKkRXR8LAX</t>
-  </si>
-  <si>
     <t>02701</t>
   </si>
   <si>
+    <t>10084</t>
+  </si>
+  <si>
     <t>Xã Y Tý</t>
   </si>
   <si>
-    <t>yvLKrpHPrxX</t>
-  </si>
-  <si>
     <t>02986</t>
   </si>
   <si>
+    <t>10414</t>
+  </si>
+  <si>
     <t>Xã Yên Sơn</t>
   </si>
   <si>
-    <t>BFSOxoFguHX</t>
-  </si>
-  <si>
     <t>02959</t>
   </si>
   <si>
+    <t>10409</t>
+  </si>
+  <si>
     <t>Xã Điện Quan</t>
   </si>
   <si>
-    <t>I9vEj7ZqMgt</t>
-  </si>
-  <si>
     <t>02662</t>
   </si>
   <si>
+    <t>10018</t>
+  </si>
+  <si>
     <t>Xã Đồng Tuyển</t>
-  </si>
-  <si>
-    <t>hFV11nhTmVZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2247,11 +2089,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2534,15 +2373,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="9" width="10" customWidth="1"/>
   </cols>
@@ -2776,10 +2614,10 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -2787,13 +2625,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -2801,13 +2639,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -2815,13 +2653,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
         <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -2829,13 +2667,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
         <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -2843,13 +2681,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
         <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -2857,13 +2695,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
         <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -2871,13 +2709,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
         <v>80</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -2885,13 +2723,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
         <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -2899,27 +2737,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
         <v>86</v>
-      </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -2927,13 +2765,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -2941,13 +2779,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
@@ -2955,13 +2793,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
         <v>42</v>
@@ -2969,13 +2807,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -2983,13 +2821,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
@@ -2997,13 +2835,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
         <v>54</v>
@@ -3011,13 +2849,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
         <v>58</v>
@@ -3025,13 +2863,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -3039,13 +2877,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
@@ -3053,13 +2891,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
         <v>46</v>
@@ -3067,13 +2905,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
         <v>38</v>
@@ -3081,13 +2919,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
         <v>42</v>
@@ -3095,13 +2933,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
         <v>46</v>
@@ -3109,13 +2947,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
         <v>54</v>
@@ -3123,13 +2961,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
         <v>42</v>
@@ -3137,13 +2975,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
         <v>58</v>
@@ -3151,13 +2989,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
         <v>38</v>
@@ -3165,13 +3003,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
@@ -3179,13 +3017,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
         <v>34</v>
@@ -3193,13 +3031,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
         <v>20</v>
@@ -3207,13 +3045,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
         <v>54</v>
@@ -3221,13 +3059,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
         <v>50</v>
@@ -3235,13 +3073,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
         <v>34</v>
@@ -3249,13 +3087,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
         <v>58</v>
@@ -3263,13 +3101,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
         <v>30</v>
@@ -3277,13 +3115,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
         <v>30</v>
@@ -3291,13 +3129,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
         <v>30</v>
@@ -3305,13 +3143,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
         <v>20</v>
@@ -3319,13 +3157,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -3333,27 +3171,24 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
         <v>50</v>
@@ -3361,13 +3196,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D59" t="s">
         <v>20</v>
@@ -3375,13 +3210,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D60" t="s">
         <v>20</v>
@@ -3389,13 +3224,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D61" t="s">
         <v>50</v>
@@ -3403,13 +3238,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D62" t="s">
         <v>20</v>
@@ -3417,13 +3252,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
@@ -3431,27 +3266,24 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D64" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D65" t="s">
         <v>50</v>
@@ -3459,10 +3291,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D66" t="s">
         <v>20</v>
@@ -3470,13 +3302,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D67" t="s">
         <v>20</v>
@@ -3484,27 +3316,24 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D68" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D69" t="s">
         <v>50</v>
@@ -3512,13 +3341,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D70" t="s">
         <v>20</v>
@@ -3526,27 +3355,24 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D71" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D72" t="s">
         <v>50</v>
@@ -3554,13 +3380,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -3568,13 +3394,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D74" t="s">
         <v>30</v>
@@ -3582,13 +3408,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
         <v>34</v>
@@ -3596,13 +3422,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D76" t="s">
         <v>38</v>
@@ -3610,13 +3436,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D77" t="s">
         <v>42</v>
@@ -3624,13 +3450,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B78" t="s">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D78" t="s">
         <v>46</v>
@@ -3638,13 +3464,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C79" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
         <v>50</v>
@@ -3652,13 +3478,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B80" t="s">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="D80" t="s">
         <v>54</v>
@@ -3666,13 +3492,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B81" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="D81" t="s">
         <v>58</v>
@@ -3680,13 +3506,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B82" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C82" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="D82" t="s">
         <v>20</v>
@@ -3694,13 +3520,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="B83" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C83" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -3708,13 +3534,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B84" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C84" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D84" t="s">
         <v>30</v>
@@ -3722,13 +3548,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B85" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D85" t="s">
         <v>42</v>
@@ -3736,13 +3562,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="C86" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="D86" t="s">
         <v>58</v>
@@ -3750,13 +3576,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="C87" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="D87" t="s">
         <v>46</v>
@@ -3764,13 +3590,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C88" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="D88" t="s">
         <v>34</v>
@@ -3778,13 +3604,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="D89" t="s">
         <v>34</v>
@@ -3792,13 +3618,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="C90" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="D90" t="s">
         <v>38</v>
@@ -3806,13 +3632,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="B91" t="s">
-        <v>280</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
         <v>34</v>
@@ -3820,13 +3646,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B92" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C92" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -3834,13 +3660,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="B93" t="s">
-        <v>286</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -3848,13 +3674,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -3862,13 +3688,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="B95" t="s">
-        <v>292</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -3876,13 +3702,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="B96" t="s">
-        <v>295</v>
+        <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -3890,13 +3716,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="B97" t="s">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -3904,13 +3730,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B98" t="s">
-        <v>301</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -3918,13 +3744,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="B99" t="s">
-        <v>304</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -3932,13 +3758,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="B100" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="C100" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="D100" t="s">
         <v>30</v>
@@ -3946,13 +3772,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="B101" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="C101" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="D101" t="s">
         <v>30</v>
@@ -3960,13 +3786,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="B102" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="C102" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="D102" t="s">
         <v>42</v>
@@ -3974,13 +3800,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="B103" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="C103" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="D103" t="s">
         <v>34</v>
@@ -3988,13 +3814,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="B104" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="C104" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="D104" t="s">
         <v>42</v>
@@ -4002,13 +3828,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="B105" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="C105" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="D105" t="s">
         <v>50</v>
@@ -4016,13 +3842,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="B106" t="s">
-        <v>325</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D106" t="s">
         <v>50</v>
@@ -4030,13 +3856,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="B107" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="D107" t="s">
         <v>42</v>
@@ -4044,13 +3870,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="B108" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="C108" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="D108" t="s">
         <v>46</v>
@@ -4058,13 +3884,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="B109" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="C109" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="D109" t="s">
         <v>54</v>
@@ -4072,13 +3898,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="B110" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="C110" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="D110" t="s">
         <v>34</v>
@@ -4086,13 +3912,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="B111" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="C111" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="D111" t="s">
         <v>42</v>
@@ -4100,13 +3926,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="B112" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C112" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="D112" t="s">
         <v>30</v>
@@ -4114,13 +3940,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="B113" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="C113" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="D113" t="s">
         <v>46</v>
@@ -4128,13 +3954,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="B114" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="C114" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="D114" t="s">
         <v>30</v>
@@ -4142,13 +3968,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="B115" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="C115" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="D115" t="s">
         <v>30</v>
@@ -4156,13 +3982,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="B116" t="s">
-        <v>355</v>
+        <v>52</v>
       </c>
       <c r="C116" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="D116" t="s">
         <v>38</v>
@@ -4170,13 +3996,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="B117" t="s">
-        <v>358</v>
+        <v>52</v>
       </c>
       <c r="C117" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="D117" t="s">
         <v>42</v>
@@ -4184,13 +4010,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="B118" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="C118" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="D118" t="s">
         <v>38</v>
@@ -4198,13 +4024,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="B119" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="C119" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="D119" t="s">
         <v>20</v>
@@ -4212,13 +4038,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="B120" t="s">
-        <v>367</v>
+        <v>52</v>
       </c>
       <c r="C120" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="D120" t="s">
         <v>46</v>
@@ -4226,13 +4052,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="B121" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C121" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="D121" t="s">
         <v>58</v>
@@ -4240,13 +4066,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="B122" t="s">
-        <v>373</v>
+        <v>52</v>
       </c>
       <c r="C122" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="D122" t="s">
         <v>54</v>
@@ -4254,13 +4080,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="B123" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="C123" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="D123" t="s">
         <v>42</v>
@@ -4268,13 +4094,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="B124" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="C124" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="D124" t="s">
         <v>42</v>
@@ -4282,13 +4108,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="B125" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="C125" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="D125" t="s">
         <v>30</v>
@@ -4296,13 +4122,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="B126" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="C126" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="D126" t="s">
         <v>20</v>
@@ -4310,13 +4136,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="B127" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="C127" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="D127" t="s">
         <v>46</v>
@@ -4324,13 +4150,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="B128" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="C128" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="D128" t="s">
         <v>58</v>
@@ -4338,13 +4164,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="B129" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="C129" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="D129" t="s">
         <v>58</v>
@@ -4352,13 +4178,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="B130" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="C130" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="D130" t="s">
         <v>30</v>
@@ -4366,13 +4192,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="B131" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="C131" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="D131" t="s">
         <v>30</v>
@@ -4380,13 +4206,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="B132" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="C132" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="D132" t="s">
         <v>34</v>
@@ -4394,13 +4220,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="B133" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="C133" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="D133" t="s">
         <v>58</v>
@@ -4408,13 +4234,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="B134" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="C134" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="D134" t="s">
         <v>50</v>
@@ -4422,13 +4248,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="B135" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="C135" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="D135" t="s">
         <v>42</v>
@@ -4436,13 +4262,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="B136" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="C136" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="D136" t="s">
         <v>50</v>
@@ -4450,13 +4276,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="B137" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="C137" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="D137" t="s">
         <v>20</v>
@@ -4464,13 +4290,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="B138" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="C138" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="D138" t="s">
         <v>58</v>
@@ -4478,13 +4304,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B139" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="C139" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="D139" t="s">
         <v>58</v>
@@ -4492,13 +4318,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="B140" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="C140" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D140" t="s">
         <v>58</v>
@@ -4506,13 +4332,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="B141" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="C141" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="D141" t="s">
         <v>38</v>
@@ -4520,13 +4346,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="B142" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="C142" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="D142" t="s">
         <v>46</v>
@@ -4534,13 +4360,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="B143" t="s">
-        <v>436</v>
+        <v>170</v>
       </c>
       <c r="C143" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="D143" t="s">
         <v>50</v>
@@ -4548,13 +4374,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="B144" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="C144" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="D144" t="s">
         <v>58</v>
@@ -4562,13 +4388,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="B145" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="C145" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="D145" t="s">
         <v>38</v>
@@ -4576,13 +4402,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="B146" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="C146" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="D146" t="s">
         <v>58</v>
@@ -4590,13 +4416,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="B147" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="C147" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="D147" t="s">
         <v>42</v>
@@ -4604,13 +4430,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="B148" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="C148" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="D148" t="s">
         <v>46</v>
@@ -4618,13 +4444,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="B149" t="s">
-        <v>454</v>
+        <v>52</v>
       </c>
       <c r="C149" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="D149" t="s">
         <v>42</v>
@@ -4632,13 +4458,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="B150" t="s">
-        <v>457</v>
+        <v>52</v>
       </c>
       <c r="C150" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="D150" t="s">
         <v>54</v>
@@ -4646,13 +4472,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B151" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="C151" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="D151" t="s">
         <v>46</v>
@@ -4660,13 +4486,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B152" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="C152" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="D152" t="s">
         <v>38</v>
@@ -4674,13 +4500,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="B153" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="C153" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="D153" t="s">
         <v>42</v>
@@ -4688,13 +4514,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="B154" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="C154" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="D154" t="s">
         <v>54</v>
@@ -4702,13 +4528,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="B155" t="s">
-        <v>472</v>
+        <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="D155" t="s">
         <v>58</v>
@@ -4716,13 +4542,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="B156" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="C156" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="D156" t="s">
         <v>38</v>
@@ -4730,13 +4556,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="B157" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="C157" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="D157" t="s">
         <v>50</v>
@@ -4744,13 +4570,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="B158" t="s">
-        <v>481</v>
+        <v>52</v>
       </c>
       <c r="C158" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="D158" t="s">
         <v>30</v>
@@ -4758,13 +4584,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="B159" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="C159" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="D159" t="s">
         <v>30</v>
@@ -4772,13 +4598,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="B160" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="C160" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="D160" t="s">
         <v>54</v>
@@ -4786,13 +4612,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="B161" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="C161" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="D161" t="s">
         <v>42</v>
@@ -4800,13 +4626,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="B162" t="s">
-        <v>493</v>
+        <v>52</v>
       </c>
       <c r="C162" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="D162" t="s">
         <v>38</v>
@@ -4814,13 +4640,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="B163" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="C163" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="D163" t="s">
         <v>50</v>
@@ -4828,13 +4654,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="B164" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="C164" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="D164" t="s">
         <v>30</v>
@@ -4842,13 +4668,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="B165" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="C165" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="D165" t="s">
         <v>54</v>
@@ -4856,13 +4682,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="B166" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="C166" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="D166" t="s">
         <v>54</v>
@@ -4870,13 +4696,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="B167" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="C167" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="D167" t="s">
         <v>46</v>
@@ -4884,13 +4710,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="B168" t="s">
-        <v>511</v>
+        <v>52</v>
       </c>
       <c r="C168" t="s">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="D168" t="s">
         <v>50</v>
@@ -4898,13 +4724,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>513</v>
+        <v>467</v>
       </c>
       <c r="B169" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="C169" t="s">
-        <v>515</v>
+        <v>469</v>
       </c>
       <c r="D169" t="s">
         <v>30</v>
@@ -4912,13 +4738,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
       <c r="B170" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="C170" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="D170" t="s">
         <v>46</v>
@@ -4926,13 +4752,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="B171" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="C171" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="D171" t="s">
         <v>58</v>
@@ -4940,13 +4766,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="B172" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="C172" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="D172" t="s">
         <v>42</v>
@@ -4954,13 +4780,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="B173" t="s">
-        <v>526</v>
+        <v>480</v>
       </c>
       <c r="C173" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="D173" t="s">
         <v>42</v>
@@ -4968,13 +4794,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="B174" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="C174" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="D174" t="s">
         <v>42</v>
@@ -4982,13 +4808,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="B175" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="C175" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="D175" t="s">
         <v>58</v>
@@ -4996,13 +4822,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="B176" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="C176" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
       <c r="D176" t="s">
         <v>30</v>
@@ -5010,13 +4836,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="B177" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
       <c r="C177" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="D177" t="s">
         <v>58</v>
@@ -5024,13 +4850,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>540</v>
+        <v>494</v>
       </c>
       <c r="B178" t="s">
-        <v>541</v>
+        <v>495</v>
       </c>
       <c r="C178" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
       <c r="D178" t="s">
         <v>50</v>
@@ -5038,13 +4864,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="B179" t="s">
-        <v>544</v>
+        <v>498</v>
       </c>
       <c r="C179" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="D179" t="s">
         <v>58</v>
@@ -5052,13 +4878,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>546</v>
+        <v>500</v>
       </c>
       <c r="B180" t="s">
-        <v>547</v>
+        <v>501</v>
       </c>
       <c r="C180" t="s">
-        <v>548</v>
+        <v>502</v>
       </c>
       <c r="D180" t="s">
         <v>58</v>
@@ -5066,13 +4892,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>549</v>
+        <v>503</v>
       </c>
       <c r="B181" t="s">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="C181" t="s">
-        <v>551</v>
+        <v>505</v>
       </c>
       <c r="D181" t="s">
         <v>58</v>
@@ -5080,13 +4906,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>552</v>
+        <v>506</v>
       </c>
       <c r="B182" t="s">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="C182" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="D182" t="s">
         <v>42</v>
@@ -5094,13 +4920,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="B183" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
       <c r="C183" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
       <c r="D183" t="s">
         <v>30</v>
@@ -5108,13 +4934,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>558</v>
+        <v>512</v>
       </c>
       <c r="B184" t="s">
-        <v>559</v>
+        <v>52</v>
       </c>
       <c r="C184" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="D184" t="s">
         <v>46</v>
@@ -5122,13 +4948,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
       <c r="B185" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="C185" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="D185" t="s">
         <v>34</v>
@@ -5136,13 +4962,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
       <c r="B186" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
       <c r="C186" t="s">
-        <v>566</v>
+        <v>519</v>
       </c>
       <c r="D186" t="s">
         <v>30</v>
@@ -5150,13 +4976,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="B187" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="C187" t="s">
-        <v>569</v>
+        <v>522</v>
       </c>
       <c r="D187" t="s">
         <v>34</v>
@@ -5164,13 +4990,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>570</v>
+        <v>523</v>
       </c>
       <c r="B188" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="C188" t="s">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="D188" t="s">
         <v>38</v>
@@ -5178,13 +5004,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="B189" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="C189" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="D189" t="s">
         <v>34</v>
@@ -5192,13 +5018,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
       <c r="B190" t="s">
-        <v>577</v>
+        <v>52</v>
       </c>
       <c r="C190" t="s">
-        <v>578</v>
+        <v>530</v>
       </c>
       <c r="D190" t="s">
         <v>54</v>
@@ -5206,13 +5032,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="B191" t="s">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="C191" t="s">
-        <v>581</v>
+        <v>533</v>
       </c>
       <c r="D191" t="s">
         <v>54</v>
@@ -5220,13 +5046,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="B192" t="s">
-        <v>583</v>
+        <v>535</v>
       </c>
       <c r="C192" t="s">
-        <v>584</v>
+        <v>536</v>
       </c>
       <c r="D192" t="s">
         <v>30</v>
@@ -5234,13 +5060,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>585</v>
+        <v>537</v>
       </c>
       <c r="B193" t="s">
-        <v>586</v>
+        <v>538</v>
       </c>
       <c r="C193" t="s">
-        <v>587</v>
+        <v>539</v>
       </c>
       <c r="D193" t="s">
         <v>54</v>
@@ -5248,13 +5074,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>588</v>
+        <v>540</v>
       </c>
       <c r="B194" t="s">
-        <v>589</v>
+        <v>541</v>
       </c>
       <c r="C194" t="s">
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="D194" t="s">
         <v>50</v>
@@ -5262,13 +5088,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="B195" t="s">
-        <v>592</v>
+        <v>544</v>
       </c>
       <c r="C195" t="s">
-        <v>593</v>
+        <v>545</v>
       </c>
       <c r="D195" t="s">
         <v>30</v>
@@ -5276,13 +5102,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
       <c r="B196" t="s">
-        <v>595</v>
+        <v>547</v>
       </c>
       <c r="C196" t="s">
-        <v>596</v>
+        <v>548</v>
       </c>
       <c r="D196" t="s">
         <v>54</v>
@@ -5290,13 +5116,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>597</v>
+        <v>549</v>
       </c>
       <c r="B197" t="s">
-        <v>598</v>
+        <v>550</v>
       </c>
       <c r="C197" t="s">
-        <v>599</v>
+        <v>551</v>
       </c>
       <c r="D197" t="s">
         <v>54</v>
@@ -5304,13 +5130,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>600</v>
+        <v>552</v>
       </c>
       <c r="B198" t="s">
-        <v>601</v>
+        <v>553</v>
       </c>
       <c r="C198" t="s">
-        <v>602</v>
+        <v>554</v>
       </c>
       <c r="D198" t="s">
         <v>34</v>
@@ -5318,13 +5144,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>603</v>
+        <v>555</v>
       </c>
       <c r="B199" t="s">
-        <v>604</v>
+        <v>556</v>
       </c>
       <c r="C199" t="s">
-        <v>605</v>
+        <v>557</v>
       </c>
       <c r="D199" t="s">
         <v>34</v>
@@ -5332,13 +5158,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>606</v>
+        <v>558</v>
       </c>
       <c r="B200" t="s">
-        <v>607</v>
+        <v>559</v>
       </c>
       <c r="C200" t="s">
-        <v>608</v>
+        <v>560</v>
       </c>
       <c r="D200" t="s">
         <v>58</v>
@@ -5346,13 +5172,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>609</v>
+        <v>561</v>
       </c>
       <c r="B201" t="s">
-        <v>610</v>
+        <v>52</v>
       </c>
       <c r="C201" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="D201" t="s">
         <v>50</v>
@@ -5360,13 +5186,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="B202" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="C202" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="D202" t="s">
         <v>50</v>
@@ -5374,13 +5200,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>615</v>
+        <v>566</v>
       </c>
       <c r="B203" t="s">
-        <v>613</v>
+        <v>567</v>
       </c>
       <c r="C203" t="s">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="D203" t="s">
         <v>46</v>
@@ -5388,13 +5214,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>617</v>
+        <v>568</v>
       </c>
       <c r="B204" t="s">
-        <v>618</v>
+        <v>569</v>
       </c>
       <c r="C204" t="s">
-        <v>619</v>
+        <v>570</v>
       </c>
       <c r="D204" t="s">
         <v>50</v>
@@ -5402,13 +5228,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B205" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
       <c r="C205" t="s">
-        <v>622</v>
+        <v>573</v>
       </c>
       <c r="D205" t="s">
         <v>54</v>
@@ -5416,13 +5242,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>623</v>
+        <v>574</v>
       </c>
       <c r="B206" t="s">
-        <v>624</v>
+        <v>575</v>
       </c>
       <c r="C206" t="s">
-        <v>625</v>
+        <v>576</v>
       </c>
       <c r="D206" t="s">
         <v>34</v>
@@ -5430,13 +5256,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>626</v>
+        <v>577</v>
       </c>
       <c r="B207" t="s">
-        <v>627</v>
+        <v>578</v>
       </c>
       <c r="C207" t="s">
-        <v>628</v>
+        <v>579</v>
       </c>
       <c r="D207" t="s">
         <v>38</v>
@@ -5444,13 +5270,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>629</v>
+        <v>580</v>
       </c>
       <c r="B208" t="s">
-        <v>630</v>
+        <v>581</v>
       </c>
       <c r="C208" t="s">
-        <v>631</v>
+        <v>582</v>
       </c>
       <c r="D208" t="s">
         <v>42</v>
@@ -5458,13 +5284,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>632</v>
+        <v>583</v>
       </c>
       <c r="B209" t="s">
-        <v>633</v>
+        <v>584</v>
       </c>
       <c r="C209" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
       <c r="D209" t="s">
         <v>58</v>
@@ -5472,13 +5298,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>635</v>
+        <v>586</v>
       </c>
       <c r="B210" t="s">
-        <v>636</v>
+        <v>587</v>
       </c>
       <c r="C210" t="s">
-        <v>637</v>
+        <v>588</v>
       </c>
       <c r="D210" t="s">
         <v>50</v>
@@ -5486,13 +5312,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="B211" t="s">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="C211" t="s">
-        <v>640</v>
+        <v>591</v>
       </c>
       <c r="D211" t="s">
         <v>30</v>
@@ -5500,13 +5326,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>641</v>
+        <v>592</v>
       </c>
       <c r="B212" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="C212" t="s">
-        <v>643</v>
+        <v>594</v>
       </c>
       <c r="D212" t="s">
         <v>34</v>
@@ -5514,13 +5340,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>644</v>
+        <v>595</v>
       </c>
       <c r="B213" t="s">
-        <v>645</v>
+        <v>52</v>
       </c>
       <c r="C213" t="s">
-        <v>646</v>
+        <v>596</v>
       </c>
       <c r="D213" t="s">
         <v>30</v>
@@ -5528,13 +5354,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>647</v>
+        <v>597</v>
       </c>
       <c r="B214" t="s">
-        <v>648</v>
+        <v>598</v>
       </c>
       <c r="C214" t="s">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="D214" t="s">
         <v>46</v>
@@ -5542,13 +5368,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="B215" t="s">
-        <v>651</v>
+        <v>601</v>
       </c>
       <c r="C215" t="s">
-        <v>652</v>
+        <v>602</v>
       </c>
       <c r="D215" t="s">
         <v>42</v>
@@ -5556,13 +5382,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>653</v>
+        <v>603</v>
       </c>
       <c r="B216" t="s">
-        <v>654</v>
+        <v>604</v>
       </c>
       <c r="C216" t="s">
-        <v>655</v>
+        <v>605</v>
       </c>
       <c r="D216" t="s">
         <v>58</v>
@@ -5570,13 +5396,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>656</v>
+        <v>606</v>
       </c>
       <c r="B217" t="s">
-        <v>657</v>
+        <v>607</v>
       </c>
       <c r="C217" t="s">
-        <v>658</v>
+        <v>608</v>
       </c>
       <c r="D217" t="s">
         <v>38</v>
@@ -5584,13 +5410,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>659</v>
+        <v>609</v>
       </c>
       <c r="B218" t="s">
-        <v>660</v>
+        <v>610</v>
       </c>
       <c r="C218" t="s">
-        <v>661</v>
+        <v>611</v>
       </c>
       <c r="D218" t="s">
         <v>58</v>
@@ -5598,13 +5424,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>662</v>
+        <v>612</v>
       </c>
       <c r="B219" t="s">
-        <v>663</v>
+        <v>613</v>
       </c>
       <c r="C219" t="s">
-        <v>664</v>
+        <v>614</v>
       </c>
       <c r="D219" t="s">
         <v>38</v>
@@ -5612,13 +5438,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="B220" t="s">
-        <v>666</v>
+        <v>616</v>
       </c>
       <c r="C220" t="s">
-        <v>667</v>
+        <v>617</v>
       </c>
       <c r="D220" t="s">
         <v>30</v>
@@ -5626,13 +5452,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>668</v>
+        <v>618</v>
       </c>
       <c r="B221" t="s">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="C221" t="s">
-        <v>670</v>
+        <v>620</v>
       </c>
       <c r="D221" t="s">
         <v>42</v>
@@ -5640,13 +5466,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>671</v>
+        <v>621</v>
       </c>
       <c r="B222" t="s">
-        <v>672</v>
+        <v>622</v>
       </c>
       <c r="C222" t="s">
-        <v>673</v>
+        <v>623</v>
       </c>
       <c r="D222" t="s">
         <v>46</v>
@@ -5654,13 +5480,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="B223" t="s">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="C223" t="s">
-        <v>676</v>
+        <v>626</v>
       </c>
       <c r="D223" t="s">
         <v>46</v>
@@ -5668,13 +5494,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>677</v>
+        <v>627</v>
       </c>
       <c r="B224" t="s">
-        <v>678</v>
+        <v>628</v>
       </c>
       <c r="C224" t="s">
-        <v>679</v>
+        <v>629</v>
       </c>
       <c r="D224" t="s">
         <v>50</v>
@@ -5682,13 +5508,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>680</v>
+        <v>630</v>
       </c>
       <c r="B225" t="s">
-        <v>681</v>
+        <v>631</v>
       </c>
       <c r="C225" t="s">
-        <v>682</v>
+        <v>632</v>
       </c>
       <c r="D225" t="s">
         <v>20</v>
@@ -5696,13 +5522,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>683</v>
+        <v>633</v>
       </c>
       <c r="B226" t="s">
-        <v>684</v>
+        <v>634</v>
       </c>
       <c r="C226" t="s">
-        <v>685</v>
+        <v>635</v>
       </c>
       <c r="D226" t="s">
         <v>46</v>
@@ -5710,13 +5536,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>686</v>
+        <v>636</v>
       </c>
       <c r="B227" t="s">
-        <v>687</v>
+        <v>637</v>
       </c>
       <c r="C227" t="s">
-        <v>688</v>
+        <v>638</v>
       </c>
       <c r="D227" t="s">
         <v>50</v>
@@ -5724,13 +5550,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>689</v>
+        <v>639</v>
       </c>
       <c r="B228" t="s">
-        <v>690</v>
+        <v>640</v>
       </c>
       <c r="C228" t="s">
-        <v>691</v>
+        <v>641</v>
       </c>
       <c r="D228" t="s">
         <v>42</v>
@@ -5738,13 +5564,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>692</v>
+        <v>642</v>
       </c>
       <c r="B229" t="s">
-        <v>693</v>
+        <v>643</v>
       </c>
       <c r="C229" t="s">
-        <v>694</v>
+        <v>644</v>
       </c>
       <c r="D229" t="s">
         <v>38</v>
@@ -5752,13 +5578,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>695</v>
+        <v>645</v>
       </c>
       <c r="B230" t="s">
-        <v>696</v>
+        <v>646</v>
       </c>
       <c r="C230" t="s">
-        <v>697</v>
+        <v>647</v>
       </c>
       <c r="D230" t="s">
         <v>58</v>
@@ -5766,13 +5592,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="B231" t="s">
-        <v>699</v>
+        <v>52</v>
       </c>
       <c r="C231" t="s">
-        <v>700</v>
+        <v>649</v>
       </c>
       <c r="D231" t="s">
         <v>58</v>
@@ -5780,13 +5606,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>701</v>
+        <v>650</v>
       </c>
       <c r="B232" t="s">
-        <v>702</v>
+        <v>651</v>
       </c>
       <c r="C232" t="s">
-        <v>703</v>
+        <v>652</v>
       </c>
       <c r="D232" t="s">
         <v>38</v>
@@ -5794,13 +5620,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>704</v>
+        <v>653</v>
       </c>
       <c r="B233" t="s">
-        <v>705</v>
+        <v>654</v>
       </c>
       <c r="C233" t="s">
-        <v>706</v>
+        <v>655</v>
       </c>
       <c r="D233" t="s">
         <v>20</v>
@@ -5808,13 +5634,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>707</v>
+        <v>656</v>
       </c>
       <c r="B234" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
       <c r="C234" t="s">
-        <v>709</v>
+        <v>658</v>
       </c>
       <c r="D234" t="s">
         <v>34</v>
@@ -5822,13 +5648,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>710</v>
+        <v>659</v>
       </c>
       <c r="B235" t="s">
-        <v>711</v>
+        <v>660</v>
       </c>
       <c r="C235" t="s">
-        <v>712</v>
+        <v>661</v>
       </c>
       <c r="D235" t="s">
         <v>38</v>
@@ -5836,13 +5662,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>713</v>
+        <v>662</v>
       </c>
       <c r="B236" t="s">
-        <v>714</v>
+        <v>663</v>
       </c>
       <c r="C236" t="s">
-        <v>715</v>
+        <v>664</v>
       </c>
       <c r="D236" t="s">
         <v>34</v>
@@ -5850,13 +5676,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>716</v>
+        <v>665</v>
       </c>
       <c r="B237" t="s">
-        <v>717</v>
+        <v>666</v>
       </c>
       <c r="C237" t="s">
-        <v>718</v>
+        <v>667</v>
       </c>
       <c r="D237" t="s">
         <v>38</v>
@@ -5864,13 +5690,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>719</v>
+        <v>668</v>
       </c>
       <c r="B238" t="s">
-        <v>720</v>
+        <v>669</v>
       </c>
       <c r="C238" t="s">
-        <v>721</v>
+        <v>670</v>
       </c>
       <c r="D238" t="s">
         <v>30</v>
@@ -5878,13 +5704,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>722</v>
+        <v>671</v>
       </c>
       <c r="B239" t="s">
-        <v>723</v>
+        <v>672</v>
       </c>
       <c r="C239" t="s">
-        <v>724</v>
+        <v>673</v>
       </c>
       <c r="D239" t="s">
         <v>38</v>
@@ -5892,13 +5718,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="B240" t="s">
-        <v>726</v>
+        <v>675</v>
       </c>
       <c r="C240" t="s">
-        <v>727</v>
+        <v>676</v>
       </c>
       <c r="D240" t="s">
         <v>38</v>
@@ -5906,13 +5732,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>728</v>
+        <v>677</v>
       </c>
       <c r="B241" t="s">
-        <v>729</v>
+        <v>678</v>
       </c>
       <c r="C241" t="s">
-        <v>730</v>
+        <v>679</v>
       </c>
       <c r="D241" t="s">
         <v>20</v>
@@ -5920,6 +5746,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>